--- a/public_SettlementTypes_ontologyImport_v1_PGa.xlsx
+++ b/public_SettlementTypes_ontologyImport_v1_PGa.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="14175" windowHeight="7365"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="14175" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
+    <sheet name="Ontology_Import_Prep" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
   <webPublishing codePage="1251"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="227">
   <si>
     <t>Identifiers</t>
   </si>
@@ -359,6 +360,348 @@
   </si>
   <si>
     <t>Związek chłopski</t>
+  </si>
+  <si>
+    <t>rdf:ids</t>
+  </si>
+  <si>
+    <t>superclass</t>
+  </si>
+  <si>
+    <t>manifestacja jednostki osadniczej</t>
+  </si>
+  <si>
+    <t>settlement_unit1</t>
+  </si>
+  <si>
+    <t>settlement_unit2</t>
+  </si>
+  <si>
+    <t>settlement_unit3</t>
+  </si>
+  <si>
+    <t>settlement_unit4</t>
+  </si>
+  <si>
+    <t>settlement_unit6</t>
+  </si>
+  <si>
+    <t>settlement_unit5</t>
+  </si>
+  <si>
+    <t>settlement_unit7</t>
+  </si>
+  <si>
+    <t>settlement_unit8</t>
+  </si>
+  <si>
+    <t>settlement_unit9</t>
+  </si>
+  <si>
+    <t>settlement_unit10</t>
+  </si>
+  <si>
+    <t>settlement_unit11</t>
+  </si>
+  <si>
+    <t>settlement_unit12</t>
+  </si>
+  <si>
+    <t>settlement_unit13</t>
+  </si>
+  <si>
+    <t>settlement_unit14</t>
+  </si>
+  <si>
+    <t>settlement_unit15</t>
+  </si>
+  <si>
+    <t>settlement_unit16</t>
+  </si>
+  <si>
+    <t>settlement_unit17</t>
+  </si>
+  <si>
+    <t>settlement_unit18</t>
+  </si>
+  <si>
+    <t>settlement_unit19</t>
+  </si>
+  <si>
+    <t>settlement_unit20</t>
+  </si>
+  <si>
+    <t>settlement_unit21</t>
+  </si>
+  <si>
+    <t>settlement_unit22</t>
+  </si>
+  <si>
+    <t>settlement_unit23</t>
+  </si>
+  <si>
+    <t>settlement_unit24</t>
+  </si>
+  <si>
+    <t>settlement_unit25</t>
+  </si>
+  <si>
+    <t>settlement_unit26</t>
+  </si>
+  <si>
+    <t>settlement_unit27</t>
+  </si>
+  <si>
+    <t>settlement_unit28</t>
+  </si>
+  <si>
+    <t>settlement_unit29</t>
+  </si>
+  <si>
+    <t>settlement_unit30</t>
+  </si>
+  <si>
+    <t>settlement_unit32</t>
+  </si>
+  <si>
+    <t>settlement_unit31</t>
+  </si>
+  <si>
+    <t>settlement_unit33</t>
+  </si>
+  <si>
+    <t>settlement_unit34</t>
+  </si>
+  <si>
+    <t>settlement_unit35</t>
+  </si>
+  <si>
+    <t>settlement_unit36</t>
+  </si>
+  <si>
+    <t>settlement_unit37</t>
+  </si>
+  <si>
+    <t>settlement_unit38</t>
+  </si>
+  <si>
+    <t>settlement_unit39</t>
+  </si>
+  <si>
+    <t>settlement_unit40</t>
+  </si>
+  <si>
+    <t>settlement_unit41</t>
+  </si>
+  <si>
+    <t>settlement_unit42</t>
+  </si>
+  <si>
+    <t>settlement_unit43</t>
+  </si>
+  <si>
+    <t>settlement_unit44</t>
+  </si>
+  <si>
+    <t>settlement_unit45</t>
+  </si>
+  <si>
+    <t>settlement_unit46</t>
+  </si>
+  <si>
+    <t>settlement_unit47</t>
+  </si>
+  <si>
+    <t>settlement_unit48</t>
+  </si>
+  <si>
+    <t>settlement_unit49</t>
+  </si>
+  <si>
+    <t>settlement_unit50</t>
+  </si>
+  <si>
+    <t>settlement_unit51</t>
+  </si>
+  <si>
+    <t>settlement_unit52</t>
+  </si>
+  <si>
+    <t>settlement_unit53</t>
+  </si>
+  <si>
+    <t>settlement_unit54</t>
+  </si>
+  <si>
+    <t>settlement_unit55</t>
+  </si>
+  <si>
+    <t>settlement_unit56</t>
+  </si>
+  <si>
+    <t>settlement_unit57</t>
+  </si>
+  <si>
+    <t>settlement_unit58</t>
+  </si>
+  <si>
+    <t>settlement_unit59</t>
+  </si>
+  <si>
+    <t>settlement_unit60</t>
+  </si>
+  <si>
+    <t>settlement_unit61</t>
+  </si>
+  <si>
+    <t>settlement_unit62</t>
+  </si>
+  <si>
+    <t>settlement_unit63</t>
+  </si>
+  <si>
+    <t>settlement_unit64</t>
+  </si>
+  <si>
+    <t>settlement_unit65</t>
+  </si>
+  <si>
+    <t>settlement_unit66</t>
+  </si>
+  <si>
+    <t>settlement_unit67</t>
+  </si>
+  <si>
+    <t>settlement_unit68</t>
+  </si>
+  <si>
+    <t>settlement_unit69</t>
+  </si>
+  <si>
+    <t>settlement_unit70</t>
+  </si>
+  <si>
+    <t>settlement_unit71</t>
+  </si>
+  <si>
+    <t>settlement_unit72</t>
+  </si>
+  <si>
+    <t>settlement_unit73</t>
+  </si>
+  <si>
+    <t>settlement_unit74</t>
+  </si>
+  <si>
+    <t>settlement_unit75</t>
+  </si>
+  <si>
+    <t>settlement_unit76</t>
+  </si>
+  <si>
+    <t>settlement_unit77</t>
+  </si>
+  <si>
+    <t>settlement_unit78</t>
+  </si>
+  <si>
+    <t>settlement_unit79</t>
+  </si>
+  <si>
+    <t>settlement_unit80</t>
+  </si>
+  <si>
+    <t>settlement_unit81</t>
+  </si>
+  <si>
+    <t>settlement_unit82</t>
+  </si>
+  <si>
+    <t>settlement_unit83</t>
+  </si>
+  <si>
+    <t>settlement_unit84</t>
+  </si>
+  <si>
+    <t>settlement_unit85</t>
+  </si>
+  <si>
+    <t>settlement_unit86</t>
+  </si>
+  <si>
+    <t>settlement_unit87</t>
+  </si>
+  <si>
+    <t>settlement_unit88</t>
+  </si>
+  <si>
+    <t>settlement_unit89</t>
+  </si>
+  <si>
+    <t>settlement_unit90</t>
+  </si>
+  <si>
+    <t>settlement_unit91</t>
+  </si>
+  <si>
+    <t>settlement_unit92</t>
+  </si>
+  <si>
+    <t>settlement_unit93</t>
+  </si>
+  <si>
+    <t>settlement_unit94</t>
+  </si>
+  <si>
+    <t>settlement_unit95</t>
+  </si>
+  <si>
+    <t>settlement_unit96</t>
+  </si>
+  <si>
+    <t>settlement_unit97</t>
+  </si>
+  <si>
+    <t>settlement_unit98</t>
+  </si>
+  <si>
+    <t>settlement_unit99</t>
+  </si>
+  <si>
+    <t>settlement_unit100</t>
+  </si>
+  <si>
+    <t>settlement_unit101</t>
+  </si>
+  <si>
+    <t>settlement_unit102</t>
+  </si>
+  <si>
+    <t>settlement_unit103</t>
+  </si>
+  <si>
+    <t>settlement_unit104</t>
+  </si>
+  <si>
+    <t>settlement_unit105</t>
+  </si>
+  <si>
+    <t>settlement_unit106</t>
+  </si>
+  <si>
+    <t>settlement_unit107</t>
+  </si>
+  <si>
+    <t>settlement_unit108</t>
+  </si>
+  <si>
+    <t>settlement_unit109</t>
+  </si>
+  <si>
+    <t>settlement_unit110</t>
+  </si>
+  <si>
+    <t>settlement_unit111</t>
   </si>
 </sst>
 </file>
@@ -740,12 +1083,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1648,4 +1992,1593 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="3">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="3">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="3">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="3">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="3">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="3">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="3">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="3">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="3">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="3">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="3">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="3">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="3">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="3">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="3">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="3">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="3">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="3">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="3">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="3">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="3">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="3">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="3">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="3">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="3">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="3">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="3">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="3">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="3">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="3">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="3">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="3">
+        <v>69</v>
+      </c>
+      <c r="D70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="3">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="3">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="3">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="3">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="3">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>190</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="3">
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="3">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="3">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="3">
+        <v>78</v>
+      </c>
+      <c r="D79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="3">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="3">
+        <v>80</v>
+      </c>
+      <c r="D81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="3">
+        <v>81</v>
+      </c>
+      <c r="D82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>197</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="3">
+        <v>82</v>
+      </c>
+      <c r="D83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="3">
+        <v>83</v>
+      </c>
+      <c r="D84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="3">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="3">
+        <v>85</v>
+      </c>
+      <c r="D86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="3">
+        <v>86</v>
+      </c>
+      <c r="D87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="3">
+        <v>87</v>
+      </c>
+      <c r="D88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>203</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="3">
+        <v>88</v>
+      </c>
+      <c r="D89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>204</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="3">
+        <v>89</v>
+      </c>
+      <c r="D90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="3">
+        <v>90</v>
+      </c>
+      <c r="D91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="3">
+        <v>91</v>
+      </c>
+      <c r="D92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="3">
+        <v>92</v>
+      </c>
+      <c r="D93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="3">
+        <v>93</v>
+      </c>
+      <c r="D94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="3">
+        <v>94</v>
+      </c>
+      <c r="D95" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="3">
+        <v>95</v>
+      </c>
+      <c r="D96" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" s="3">
+        <v>96</v>
+      </c>
+      <c r="D97" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" s="3">
+        <v>97</v>
+      </c>
+      <c r="D98" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>213</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="3">
+        <v>98</v>
+      </c>
+      <c r="D99" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="3">
+        <v>99</v>
+      </c>
+      <c r="D100" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="3">
+        <v>100</v>
+      </c>
+      <c r="D101" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="3">
+        <v>101</v>
+      </c>
+      <c r="D102" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>217</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" s="3">
+        <v>102</v>
+      </c>
+      <c r="D103" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="3">
+        <v>103</v>
+      </c>
+      <c r="D104" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>219</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" s="3">
+        <v>104</v>
+      </c>
+      <c r="D105" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" s="3">
+        <v>105</v>
+      </c>
+      <c r="D106" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="3">
+        <v>106</v>
+      </c>
+      <c r="D107" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="3">
+        <v>107</v>
+      </c>
+      <c r="D108" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="3">
+        <v>108</v>
+      </c>
+      <c r="D109" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="3">
+        <v>109</v>
+      </c>
+      <c r="D110" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" s="3">
+        <v>110</v>
+      </c>
+      <c r="D111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="3">
+        <v>111</v>
+      </c>
+      <c r="D112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public_SettlementTypes_ontologyImport_v1_PGa.xlsx
+++ b/public_SettlementTypes_ontologyImport_v1_PGa.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="338">
   <si>
     <t>Identifiers</t>
   </si>
@@ -702,6 +702,339 @@
   </si>
   <si>
     <t>settlement_unit111</t>
+  </si>
+  <si>
+    <t>przysiółek kolonii</t>
+  </si>
+  <si>
+    <t>przysiółek osady</t>
+  </si>
+  <si>
+    <t>przysiółek wsi</t>
+  </si>
+  <si>
+    <t>schronisko turystyczne</t>
+  </si>
+  <si>
+    <t>inny obiekt</t>
+  </si>
+  <si>
+    <t>odosobnione gospodarstwa</t>
+  </si>
+  <si>
+    <t>pojedyncze domy</t>
+  </si>
+  <si>
+    <t>holendry</t>
+  </si>
+  <si>
+    <t>zagroda</t>
+  </si>
+  <si>
+    <t>port morski</t>
+  </si>
+  <si>
+    <t>wieś kościelna</t>
+  </si>
+  <si>
+    <t>miasto królewskie</t>
+  </si>
+  <si>
+    <t>miasto targowe</t>
+  </si>
+  <si>
+    <t>miasto warowne</t>
+  </si>
+  <si>
+    <t>miasto z murami</t>
+  </si>
+  <si>
+    <t>miasto handlowe</t>
+  </si>
+  <si>
+    <t>miasto krajowe</t>
+  </si>
+  <si>
+    <t>miasto rządowe</t>
+  </si>
+  <si>
+    <t>miasto w landach</t>
+  </si>
+  <si>
+    <t>targ</t>
+  </si>
+  <si>
+    <t>obozowisko nomadów</t>
+  </si>
+  <si>
+    <t>odosobnione zagrody</t>
+  </si>
+  <si>
+    <t>osiedle przy mieście</t>
+  </si>
+  <si>
+    <t>pojedyncze zabudowania</t>
+  </si>
+  <si>
+    <t>posada</t>
+  </si>
+  <si>
+    <t>schronisko górskie</t>
+  </si>
+  <si>
+    <t>karczma</t>
+  </si>
+  <si>
+    <t>kaplica</t>
+  </si>
+  <si>
+    <t>szaniec polowy</t>
+  </si>
+  <si>
+    <t>grupa zabudowań</t>
+  </si>
+  <si>
+    <t>kościół</t>
+  </si>
+  <si>
+    <t>fabryka</t>
+  </si>
+  <si>
+    <t>przystanek</t>
+  </si>
+  <si>
+    <t>rumunek</t>
+  </si>
+  <si>
+    <t>targowica</t>
+  </si>
+  <si>
+    <t>wieś bez kościoła</t>
+  </si>
+  <si>
+    <t>wieś z folwarkiem</t>
+  </si>
+  <si>
+    <t>wójtostwo</t>
+  </si>
+  <si>
+    <t>związek chłopski</t>
+  </si>
+  <si>
+    <t>zamek</t>
+  </si>
+  <si>
+    <t>wieś</t>
+  </si>
+  <si>
+    <t>miasto</t>
+  </si>
+  <si>
+    <t>ruiny zamku</t>
+  </si>
+  <si>
+    <t>dzielnica</t>
+  </si>
+  <si>
+    <t>targowisko</t>
+  </si>
+  <si>
+    <t>dwór</t>
+  </si>
+  <si>
+    <t>folwark</t>
+  </si>
+  <si>
+    <t>borostwo</t>
+  </si>
+  <si>
+    <t>browar</t>
+  </si>
+  <si>
+    <t>cegielnia</t>
+  </si>
+  <si>
+    <t>cukrownia</t>
+  </si>
+  <si>
+    <t>domek łąkowy</t>
+  </si>
+  <si>
+    <t>domek przewozowy</t>
+  </si>
+  <si>
+    <t>domek szosowy</t>
+  </si>
+  <si>
+    <t>futor</t>
+  </si>
+  <si>
+    <t>gajówka</t>
+  </si>
+  <si>
+    <t>gorzelnia</t>
+  </si>
+  <si>
+    <t>klasztor</t>
+  </si>
+  <si>
+    <t>kolonia</t>
+  </si>
+  <si>
+    <t>kopalnia</t>
+  </si>
+  <si>
+    <t>koszary</t>
+  </si>
+  <si>
+    <t>latarnia morska</t>
+  </si>
+  <si>
+    <t>lecznica</t>
+  </si>
+  <si>
+    <t>letnisko</t>
+  </si>
+  <si>
+    <t>leśnictwo</t>
+  </si>
+  <si>
+    <t>leśniczówka</t>
+  </si>
+  <si>
+    <t>miasteczko</t>
+  </si>
+  <si>
+    <t>nadleśnictwo</t>
+  </si>
+  <si>
+    <t>obszar dworski</t>
+  </si>
+  <si>
+    <t>okolica</t>
+  </si>
+  <si>
+    <t>obóz warowny</t>
+  </si>
+  <si>
+    <t>osada</t>
+  </si>
+  <si>
+    <t>osiedle</t>
+  </si>
+  <si>
+    <t>osada fabryczna</t>
+  </si>
+  <si>
+    <t>osada leśna</t>
+  </si>
+  <si>
+    <t>osada miejska</t>
+  </si>
+  <si>
+    <t>osada młyńska</t>
+  </si>
+  <si>
+    <t>osada pałacowa</t>
+  </si>
+  <si>
+    <t>osada wojskowa</t>
+  </si>
+  <si>
+    <t>plebania</t>
+  </si>
+  <si>
+    <t>probostwo</t>
+  </si>
+  <si>
+    <t>przedmieście</t>
+  </si>
+  <si>
+    <t>przysiółek</t>
+  </si>
+  <si>
+    <t>przystanek kolejowy</t>
+  </si>
+  <si>
+    <t>pustkowie</t>
+  </si>
+  <si>
+    <t>smolarnia</t>
+  </si>
+  <si>
+    <t>stacja kolejowa</t>
+  </si>
+  <si>
+    <t>szpital epidemiczny</t>
+  </si>
+  <si>
+    <t>tartak</t>
+  </si>
+  <si>
+    <t>torfiarnia</t>
+  </si>
+  <si>
+    <t>twierdza</t>
+  </si>
+  <si>
+    <t>uzdrowisko</t>
+  </si>
+  <si>
+    <t>uroczysko</t>
+  </si>
+  <si>
+    <t>więzienie</t>
+  </si>
+  <si>
+    <t>zaścianek</t>
+  </si>
+  <si>
+    <t>zakład kąpielowy</t>
+  </si>
+  <si>
+    <t>zakład poprawczy</t>
+  </si>
+  <si>
+    <t>zakład wychowawczy</t>
+  </si>
+  <si>
+    <t>część kolonii</t>
+  </si>
+  <si>
+    <t>część miasta</t>
+  </si>
+  <si>
+    <t>część osady</t>
+  </si>
+  <si>
+    <t>część wsi</t>
+  </si>
+  <si>
+    <t>kolonia kolonii</t>
+  </si>
+  <si>
+    <t>kolonia osady</t>
+  </si>
+  <si>
+    <t>kolonia wsi</t>
+  </si>
+  <si>
+    <t>osada kolejowa</t>
+  </si>
+  <si>
+    <t>osada kolonii</t>
+  </si>
+  <si>
+    <t>osada leśna wsi</t>
+  </si>
+  <si>
+    <t>osada osady</t>
+  </si>
+  <si>
+    <t>osada wsi</t>
+  </si>
+  <si>
+    <t>osiedle wsi</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2332,7 @@
   <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,13 +2359,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>115</v>
@@ -2040,13 +2373,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>115</v>
@@ -2054,13 +2387,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>229</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>115</v>
@@ -2068,13 +2401,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>230</v>
       </c>
       <c r="C5" s="3">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>115</v>
@@ -2082,13 +2415,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>231</v>
       </c>
       <c r="C6" s="3">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>115</v>
@@ -2096,13 +2429,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>115</v>
@@ -2110,13 +2443,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
       <c r="C8" s="3">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>115</v>
@@ -2124,13 +2457,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="C9" s="3">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
         <v>115</v>
@@ -2138,13 +2471,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="C10" s="3">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>115</v>
@@ -2152,13 +2485,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="C11" s="3">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>115</v>
@@ -2166,13 +2499,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="C12" s="3">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
         <v>115</v>
@@ -2180,13 +2513,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="C13" s="3">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
         <v>115</v>
@@ -2194,13 +2527,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="C14" s="3">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
         <v>115</v>
@@ -2208,13 +2541,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="C15" s="3">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
         <v>115</v>
@@ -2222,13 +2555,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="C16" s="3">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
         <v>115</v>
@@ -2236,13 +2569,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="C17" s="3">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
         <v>115</v>
@@ -2250,13 +2583,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="C18" s="3">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
         <v>115</v>
@@ -2264,13 +2597,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>244</v>
       </c>
       <c r="C19" s="3">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
         <v>115</v>
@@ -2278,13 +2611,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="C20" s="3">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
         <v>115</v>
@@ -2292,13 +2625,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="C21" s="3">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
         <v>115</v>
@@ -2306,13 +2639,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="C22" s="3">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
         <v>115</v>
@@ -2320,13 +2653,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="C23" s="3">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
         <v>115</v>
@@ -2334,13 +2667,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="C24" s="3">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
         <v>115</v>
@@ -2348,13 +2681,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="C25" s="3">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
         <v>115</v>
@@ -2362,13 +2695,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="C26" s="3">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
         <v>115</v>
@@ -2376,13 +2709,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="C27" s="3">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
         <v>115</v>
@@ -2390,13 +2723,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="C28" s="3">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
         <v>115</v>
@@ -2404,13 +2737,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="C29" s="3">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
         <v>115</v>
@@ -2418,13 +2751,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="C30" s="3">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
         <v>115</v>
@@ -2432,13 +2765,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="C31" s="3">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
         <v>115</v>
@@ -2446,13 +2779,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="C32" s="3">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
         <v>115</v>
@@ -2460,13 +2793,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="C33" s="3">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
         <v>115</v>
@@ -2474,13 +2807,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="C34" s="3">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
         <v>115</v>
@@ -2488,13 +2821,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="C35" s="3">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
         <v>115</v>
@@ -2502,13 +2835,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="C36" s="3">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
         <v>115</v>
@@ -2516,13 +2849,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="C37" s="3">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
         <v>115</v>
@@ -2530,13 +2863,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="C38" s="3">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -2544,13 +2877,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c r="C39" s="3">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
         <v>115</v>
@@ -2558,13 +2891,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="C40" s="3">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
         <v>115</v>
@@ -2572,13 +2905,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="C41" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>115</v>
@@ -2586,13 +2919,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="C42" s="3">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
         <v>115</v>
@@ -2600,13 +2933,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>268</v>
       </c>
       <c r="C43" s="3">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
         <v>115</v>
@@ -2614,13 +2947,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>269</v>
       </c>
       <c r="C44" s="3">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
         <v>115</v>
@@ -2628,13 +2961,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="C45" s="3">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
         <v>115</v>
@@ -2642,13 +2975,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="C46" s="3">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
         <v>115</v>
@@ -2656,13 +2989,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="C47" s="3">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
         <v>115</v>
@@ -2670,13 +3003,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>273</v>
       </c>
       <c r="C48" s="3">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>115</v>
@@ -2684,13 +3017,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="C49" s="3">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -2698,13 +3031,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="C50" s="3">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
         <v>115</v>
@@ -2712,13 +3045,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="C51" s="3">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
         <v>115</v>
@@ -2726,13 +3059,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>277</v>
       </c>
       <c r="C52" s="3">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
         <v>115</v>
@@ -2740,13 +3073,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>278</v>
       </c>
       <c r="C53" s="3">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
         <v>115</v>
@@ -2754,13 +3087,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>279</v>
       </c>
       <c r="C54" s="3">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
         <v>115</v>
@@ -2768,13 +3101,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="C55" s="3">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -2782,13 +3115,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>281</v>
       </c>
       <c r="C56" s="3">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
         <v>115</v>
@@ -2796,13 +3129,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>282</v>
       </c>
       <c r="C57" s="3">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
         <v>115</v>
@@ -2810,13 +3143,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>283</v>
       </c>
       <c r="C58" s="3">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
         <v>115</v>
@@ -2824,13 +3157,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>284</v>
       </c>
       <c r="C59" s="3">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
         <v>115</v>
@@ -2838,13 +3171,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>285</v>
       </c>
       <c r="C60" s="3">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
         <v>115</v>
@@ -2852,13 +3185,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="C61" s="3">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
         <v>115</v>
@@ -2866,13 +3199,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="C62" s="3">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
         <v>115</v>
@@ -2880,13 +3213,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="C63" s="3">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
         <v>115</v>
@@ -2894,13 +3227,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="C64" s="3">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
         <v>115</v>
@@ -2908,13 +3241,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="C65" s="3">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
         <v>115</v>
@@ -2922,13 +3255,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c r="C66" s="3">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
         <v>115</v>
@@ -2936,13 +3269,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>67</v>
+        <v>292</v>
       </c>
       <c r="C67" s="3">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D67" t="s">
         <v>115</v>
@@ -2950,13 +3283,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>68</v>
+        <v>293</v>
       </c>
       <c r="C68" s="3">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s">
         <v>115</v>
@@ -2964,13 +3297,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>69</v>
+        <v>294</v>
       </c>
       <c r="C69" s="3">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
         <v>115</v>
@@ -2978,13 +3311,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="C70" s="3">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D70" t="s">
         <v>115</v>
@@ -2992,13 +3325,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>71</v>
+        <v>296</v>
       </c>
       <c r="C71" s="3">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s">
         <v>115</v>
@@ -3006,13 +3339,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c r="C72" s="3">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D72" t="s">
         <v>115</v>
@@ -3020,13 +3353,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="C73" s="3">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="D73" t="s">
         <v>115</v>
@@ -3034,13 +3367,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="C74" s="3">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
         <v>115</v>
@@ -3048,13 +3381,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="C75" s="3">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D75" t="s">
         <v>115</v>
@@ -3062,13 +3395,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="C76" s="3">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
         <v>115</v>
@@ -3076,13 +3409,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="C77" s="3">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s">
         <v>115</v>
@@ -3090,13 +3423,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="C78" s="3">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
         <v>115</v>
@@ -3104,13 +3437,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="C79" s="3">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="D79" t="s">
         <v>115</v>
@@ -3118,13 +3451,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="C80" s="3">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s">
         <v>115</v>
@@ -3132,13 +3465,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="C81" s="3">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D81" t="s">
         <v>115</v>
@@ -3146,13 +3479,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="C82" s="3">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D82" t="s">
         <v>115</v>
@@ -3160,13 +3493,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="C83" s="3">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D83" t="s">
         <v>115</v>
@@ -3174,13 +3507,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>309</v>
       </c>
       <c r="C84" s="3">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="D84" t="s">
         <v>115</v>
@@ -3188,13 +3521,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="C85" s="3">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D85" t="s">
         <v>115</v>
@@ -3202,13 +3535,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
+        <v>311</v>
       </c>
       <c r="C86" s="3">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D86" t="s">
         <v>115</v>
@@ -3216,13 +3549,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>312</v>
       </c>
       <c r="C87" s="3">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="D87" t="s">
         <v>115</v>
@@ -3230,13 +3563,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>313</v>
       </c>
       <c r="C88" s="3">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="D88" t="s">
         <v>115</v>
@@ -3244,13 +3577,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>314</v>
       </c>
       <c r="C89" s="3">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s">
         <v>115</v>
@@ -3258,13 +3591,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="C90" s="3">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D90" t="s">
         <v>115</v>
@@ -3272,13 +3605,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>316</v>
       </c>
       <c r="C91" s="3">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="D91" t="s">
         <v>115</v>
@@ -3286,13 +3619,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>317</v>
       </c>
       <c r="C92" s="3">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D92" t="s">
         <v>115</v>
@@ -3300,13 +3633,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>318</v>
       </c>
       <c r="C93" s="3">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="D93" t="s">
         <v>115</v>
@@ -3314,13 +3647,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>319</v>
       </c>
       <c r="C94" s="3">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D94" t="s">
         <v>115</v>
@@ -3328,13 +3661,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>95</v>
+        <v>320</v>
       </c>
       <c r="C95" s="3">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D95" t="s">
         <v>115</v>
@@ -3342,13 +3675,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>321</v>
       </c>
       <c r="C96" s="3">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D96" t="s">
         <v>115</v>
@@ -3356,13 +3689,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>322</v>
       </c>
       <c r="C97" s="3">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D97" t="s">
         <v>115</v>
@@ -3370,13 +3703,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>323</v>
       </c>
       <c r="C98" s="3">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="D98" t="s">
         <v>115</v>
@@ -3384,13 +3717,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="C99" s="3">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D99" t="s">
         <v>115</v>
@@ -3398,13 +3731,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="C100" s="3">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D100" t="s">
         <v>115</v>
@@ -3412,13 +3745,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>326</v>
       </c>
       <c r="C101" s="3">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D101" t="s">
         <v>115</v>
@@ -3426,13 +3759,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>327</v>
       </c>
       <c r="C102" s="3">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D102" t="s">
         <v>115</v>
@@ -3440,13 +3773,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>328</v>
       </c>
       <c r="C103" s="3">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D103" t="s">
         <v>115</v>
@@ -3454,13 +3787,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="C104" s="3">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="D104" t="s">
         <v>115</v>
@@ -3468,13 +3801,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>330</v>
       </c>
       <c r="C105" s="3">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="D105" t="s">
         <v>115</v>
@@ -3482,13 +3815,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>331</v>
       </c>
       <c r="C106" s="3">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D106" t="s">
         <v>115</v>
@@ -3496,13 +3829,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>107</v>
+        <v>332</v>
       </c>
       <c r="C107" s="3">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="D107" t="s">
         <v>115</v>
@@ -3510,13 +3843,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>333</v>
       </c>
       <c r="C108" s="3">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="D108" t="s">
         <v>115</v>
@@ -3524,13 +3857,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>334</v>
       </c>
       <c r="C109" s="3">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="D109" t="s">
         <v>115</v>
@@ -3538,13 +3871,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>335</v>
       </c>
       <c r="C110" s="3">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D110" t="s">
         <v>115</v>
@@ -3552,13 +3885,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>336</v>
       </c>
       <c r="C111" s="3">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="D111" t="s">
         <v>115</v>
@@ -3566,13 +3899,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
+        <v>337</v>
       </c>
       <c r="C112" s="3">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="D112" t="s">
         <v>115</v>
